--- a/upload/uploadPegawai/HRMISTA_CONST_02072018.xlsx
+++ b/upload/uploadPegawai/HRMISTA_CONST_02072018.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PAMUNGKAS\Google Drive\ASMAN SDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Untuk proj_telacc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38E8F45C-9373-48D7-A8AA-8BCDAED863B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B9941451-0CAC-41F5-B9E4-4250A2FCF9A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3795" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3816" uniqueCount="533">
   <si>
     <t>OBJECT ID</t>
   </si>
@@ -1704,16 +1704,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1989,11 +1980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R224"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D206"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2064,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
@@ -2130,15 +2120,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
@@ -2178,9 +2172,11 @@
       <c r="Q3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R3" s="2"/>
-    </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>38</v>
       </c>
@@ -2236,7 +2232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -2404,7 +2400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
@@ -2516,7 +2512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>61</v>
       </c>
@@ -2572,15 +2568,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2620,9 +2620,11 @@
       <c r="Q11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>69</v>
       </c>
@@ -2678,7 +2680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>75</v>
       </c>
@@ -2790,7 +2792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>77</v>
       </c>
@@ -2846,15 +2848,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2894,9 +2900,11 @@
       <c r="Q16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="R16" s="2"/>
-    </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R16" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2952,7 +2960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3008,7 +3016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>89</v>
       </c>
@@ -3064,7 +3072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
@@ -3120,15 +3128,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>101</v>
       </c>
@@ -3168,9 +3180,11 @@
       <c r="Q21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R21" s="2"/>
-    </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>104</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>106</v>
       </c>
@@ -3282,7 +3296,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>108</v>
       </c>
@@ -3338,7 +3352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3394,7 +3408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>112</v>
       </c>
@@ -3450,7 +3464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>115</v>
       </c>
@@ -3506,7 +3520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>117</v>
       </c>
@@ -3562,7 +3576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
@@ -3618,7 +3632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>121</v>
       </c>
@@ -3674,7 +3688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>123</v>
       </c>
@@ -3730,7 +3744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>125</v>
       </c>
@@ -3786,7 +3800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>127</v>
       </c>
@@ -3842,7 +3856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>129</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>131</v>
       </c>
@@ -3954,7 +3968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>133</v>
       </c>
@@ -4010,7 +4024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>135</v>
       </c>
@@ -4066,7 +4080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>137</v>
       </c>
@@ -4122,7 +4136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>139</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>141</v>
       </c>
@@ -4234,7 +4248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>143</v>
       </c>
@@ -4290,15 +4304,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
+      <c r="C42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>21</v>
       </c>
@@ -4338,9 +4356,11 @@
       <c r="Q42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="R42" s="2"/>
-    </row>
-    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>146</v>
       </c>
@@ -4396,7 +4416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>148</v>
       </c>
@@ -4452,7 +4472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>150</v>
       </c>
@@ -4508,7 +4528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>152</v>
       </c>
@@ -4564,7 +4584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>154</v>
       </c>
@@ -4620,7 +4640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>156</v>
       </c>
@@ -4676,7 +4696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>158</v>
       </c>
@@ -4732,7 +4752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>160</v>
       </c>
@@ -4788,7 +4808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>162</v>
       </c>
@@ -4844,7 +4864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>164</v>
       </c>
@@ -4900,7 +4920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>166</v>
       </c>
@@ -4956,7 +4976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>170</v>
       </c>
@@ -5012,7 +5032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>173</v>
       </c>
@@ -5068,7 +5088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>175</v>
       </c>
@@ -5236,7 +5256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
@@ -5292,7 +5312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>183</v>
       </c>
@@ -5348,7 +5368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>185</v>
       </c>
@@ -5404,7 +5424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>187</v>
       </c>
@@ -5460,7 +5480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>189</v>
       </c>
@@ -5516,7 +5536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>191</v>
       </c>
@@ -5572,7 +5592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>193</v>
       </c>
@@ -5628,7 +5648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>197</v>
       </c>
@@ -5684,7 +5704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>200</v>
       </c>
@@ -5740,7 +5760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>204</v>
       </c>
@@ -5796,7 +5816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>206</v>
       </c>
@@ -5852,7 +5872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>208</v>
       </c>
@@ -5908,7 +5928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>210</v>
       </c>
@@ -5964,7 +5984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>212</v>
       </c>
@@ -6020,7 +6040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>214</v>
       </c>
@@ -6076,7 +6096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>216</v>
       </c>
@@ -6132,7 +6152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>218</v>
       </c>
@@ -6188,7 +6208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>220</v>
       </c>
@@ -6244,7 +6264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>222</v>
       </c>
@@ -6300,7 +6320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>224</v>
       </c>
@@ -6356,7 +6376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>226</v>
       </c>
@@ -6412,7 +6432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>228</v>
       </c>
@@ -6468,7 +6488,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>230</v>
       </c>
@@ -6524,7 +6544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>232</v>
       </c>
@@ -6580,7 +6600,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>234</v>
       </c>
@@ -6636,7 +6656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>236</v>
       </c>
@@ -6692,7 +6712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>238</v>
       </c>
@@ -6748,7 +6768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>240</v>
       </c>
@@ -6804,7 +6824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>242</v>
       </c>
@@ -6860,7 +6880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>244</v>
       </c>
@@ -6916,7 +6936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>246</v>
       </c>
@@ -6972,7 +6992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>248</v>
       </c>
@@ -7028,7 +7048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>250</v>
       </c>
@@ -7084,7 +7104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>252</v>
       </c>
@@ -7140,7 +7160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>254</v>
       </c>
@@ -7196,7 +7216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>256</v>
       </c>
@@ -7252,7 +7272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>258</v>
       </c>
@@ -7308,7 +7328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>260</v>
       </c>
@@ -7364,7 +7384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>262</v>
       </c>
@@ -7420,7 +7440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>264</v>
       </c>
@@ -7476,7 +7496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>266</v>
       </c>
@@ -7532,7 +7552,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>269</v>
       </c>
@@ -7588,15 +7608,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>271</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
+      <c r="C101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E101" s="2" t="s">
         <v>273</v>
       </c>
@@ -7636,9 +7660,11 @@
       <c r="Q101" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="R101" s="2"/>
-    </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R101" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>278</v>
       </c>
@@ -7694,7 +7720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>281</v>
       </c>
@@ -7750,7 +7776,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>283</v>
       </c>
@@ -7806,7 +7832,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>285</v>
       </c>
@@ -7862,7 +7888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>287</v>
       </c>
@@ -7918,7 +7944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>289</v>
       </c>
@@ -7974,7 +8000,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>291</v>
       </c>
@@ -8030,7 +8056,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>293</v>
       </c>
@@ -8086,7 +8112,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>295</v>
       </c>
@@ -8142,7 +8168,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>297</v>
       </c>
@@ -8198,7 +8224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>299</v>
       </c>
@@ -8254,7 +8280,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>301</v>
       </c>
@@ -8310,7 +8336,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>303</v>
       </c>
@@ -8366,7 +8392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>305</v>
       </c>
@@ -8422,7 +8448,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>307</v>
       </c>
@@ -8478,7 +8504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>309</v>
       </c>
@@ -8534,7 +8560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>311</v>
       </c>
@@ -8590,7 +8616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>313</v>
       </c>
@@ -8646,7 +8672,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>315</v>
       </c>
@@ -8702,7 +8728,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>317</v>
       </c>
@@ -8758,7 +8784,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>319</v>
       </c>
@@ -8870,7 +8896,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>323</v>
       </c>
@@ -8926,7 +8952,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>325</v>
       </c>
@@ -8982,7 +9008,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>327</v>
       </c>
@@ -9038,7 +9064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>329</v>
       </c>
@@ -9094,7 +9120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>331</v>
       </c>
@@ -9150,7 +9176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>333</v>
       </c>
@@ -9206,7 +9232,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>335</v>
       </c>
@@ -9262,7 +9288,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>337</v>
       </c>
@@ -9318,7 +9344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>339</v>
       </c>
@@ -9374,7 +9400,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>341</v>
       </c>
@@ -9430,7 +9456,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>343</v>
       </c>
@@ -9486,7 +9512,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>345</v>
       </c>
@@ -9542,7 +9568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>347</v>
       </c>
@@ -9598,7 +9624,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>349</v>
       </c>
@@ -9654,7 +9680,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>351</v>
       </c>
@@ -9710,7 +9736,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>353</v>
       </c>
@@ -9766,7 +9792,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>355</v>
       </c>
@@ -9822,7 +9848,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>357</v>
       </c>
@@ -9878,7 +9904,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>359</v>
       </c>
@@ -9934,7 +9960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>361</v>
       </c>
@@ -10046,7 +10072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>365</v>
       </c>
@@ -10102,7 +10128,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>367</v>
       </c>
@@ -10214,7 +10240,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>371</v>
       </c>
@@ -10326,7 +10352,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>375</v>
       </c>
@@ -10382,7 +10408,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>378</v>
       </c>
@@ -10438,7 +10464,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>380</v>
       </c>
@@ -10494,7 +10520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>382</v>
       </c>
@@ -10550,7 +10576,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>384</v>
       </c>
@@ -10606,7 +10632,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>386</v>
       </c>
@@ -10662,7 +10688,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>388</v>
       </c>
@@ -10718,7 +10744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>390</v>
       </c>
@@ -10774,7 +10800,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>392</v>
       </c>
@@ -10830,7 +10856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>393</v>
       </c>
@@ -10886,7 +10912,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>395</v>
       </c>
@@ -10942,7 +10968,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>397</v>
       </c>
@@ -10998,7 +11024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>399</v>
       </c>
@@ -11054,7 +11080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>401</v>
       </c>
@@ -11110,7 +11136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>403</v>
       </c>
@@ -11166,7 +11192,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>405</v>
       </c>
@@ -11222,7 +11248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>413</v>
       </c>
@@ -11278,7 +11304,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>415</v>
       </c>
@@ -11334,7 +11360,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>417</v>
       </c>
@@ -11390,7 +11416,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>419</v>
       </c>
@@ -11446,7 +11472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>421</v>
       </c>
@@ -11502,7 +11528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>423</v>
       </c>
@@ -11558,7 +11584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>425</v>
       </c>
@@ -11614,7 +11640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>427</v>
       </c>
@@ -11670,7 +11696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>429</v>
       </c>
@@ -11726,7 +11752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>431</v>
       </c>
@@ -11782,7 +11808,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>433</v>
       </c>
@@ -11838,7 +11864,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>435</v>
       </c>
@@ -11894,7 +11920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>437</v>
       </c>
@@ -11950,7 +11976,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>439</v>
       </c>
@@ -12006,7 +12032,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>441</v>
       </c>
@@ -12062,7 +12088,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>443</v>
       </c>
@@ -12118,7 +12144,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>445</v>
       </c>
@@ -12174,7 +12200,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>450</v>
       </c>
@@ -12230,7 +12256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>452</v>
       </c>
@@ -12286,7 +12312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>454</v>
       </c>
@@ -12342,7 +12368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>456</v>
       </c>
@@ -12398,7 +12424,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>458</v>
       </c>
@@ -12454,7 +12480,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>460</v>
       </c>
@@ -12510,7 +12536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>462</v>
       </c>
@@ -12566,7 +12592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>464</v>
       </c>
@@ -12622,7 +12648,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>466</v>
       </c>
@@ -12678,7 +12704,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>468</v>
       </c>
@@ -12734,7 +12760,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>470</v>
       </c>
@@ -12790,7 +12816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>472</v>
       </c>
@@ -12846,7 +12872,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>474</v>
       </c>
@@ -12902,7 +12928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>476</v>
       </c>
@@ -12958,7 +12984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>478</v>
       </c>
@@ -13014,7 +13040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>480</v>
       </c>
@@ -13070,7 +13096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>482</v>
       </c>
@@ -13126,7 +13152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>484</v>
       </c>
@@ -13182,7 +13208,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>486</v>
       </c>
@@ -13238,7 +13264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>488</v>
       </c>
@@ -13294,7 +13320,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>490</v>
       </c>
@@ -13350,7 +13376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>492</v>
       </c>
@@ -13406,7 +13432,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>494</v>
       </c>
@@ -13518,7 +13544,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>498</v>
       </c>
@@ -13574,15 +13600,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>500</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C208" s="2"/>
-      <c r="D208" s="2"/>
+      <c r="C208" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E208" s="2" t="s">
         <v>408</v>
       </c>
@@ -13622,9 +13652,11 @@
       <c r="Q208" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="R208" s="2"/>
-    </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="R208" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>501</v>
       </c>
@@ -13680,7 +13712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>503</v>
       </c>
@@ -13736,7 +13768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>505</v>
       </c>
@@ -13792,7 +13824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>507</v>
       </c>
@@ -13848,7 +13880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>509</v>
       </c>
@@ -13904,7 +13936,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>511</v>
       </c>
@@ -13960,7 +13992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>513</v>
       </c>
@@ -14016,7 +14048,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>515</v>
       </c>
@@ -14072,7 +14104,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>517</v>
       </c>
@@ -14128,7 +14160,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>519</v>
       </c>
@@ -14184,7 +14216,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>521</v>
       </c>
@@ -14240,7 +14272,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>523</v>
       </c>
@@ -14296,7 +14328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>525</v>
       </c>
@@ -14352,7 +14384,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>527</v>
       </c>
@@ -14408,7 +14440,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>529</v>
       </c>
@@ -14464,7 +14496,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>531</v>
       </c>
@@ -14521,16 +14553,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R224" xr:uid="{6DF2050A-2DCA-43C0-9A6F-76A3B89E0368}">
-    <filterColumn colId="3">
-      <colorFilter dxfId="0"/>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="Drafter"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>